--- a/po_analysis_by_asin/B0BXMWXK3N_po_data.xlsx
+++ b/po_analysis_by_asin/B0BXMWXK3N_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,127 +452,127 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45334</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45341</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45362</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45369</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45376</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45383</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45390</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45397</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45404</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45411</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -580,23 +580,23 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45418</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45425</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45432</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -604,105 +604,385 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45439</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45446</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45453</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45467</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45474</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45481</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45488</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45495</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45502</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45509</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45523</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45530</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45537</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B33" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B68" t="n">
         <v>30</v>
       </c>
     </row>
@@ -717,7 +997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,73 +1019,153 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>126</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B20" t="n">
         <v>30</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BXMWXK3N_po_data.xlsx
+++ b/po_analysis_by_asin/B0BXMWXK3N_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1014,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1167,6 +1168,1097 @@
       </c>
       <c r="B20" t="n">
         <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-12.0371285290029</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.30696095054402</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-10.73247897206887</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.38573317689519</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-10.99924221458364</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.07740565974546</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-12.37545363725458</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.67110176692979</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-9.794621070320954</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.24612333843451</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-10.14327721574721</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.26786519345735</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-10.6046371734621</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23.9513044300436</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-10.068416199098</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21.9584942327692</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-9.670733561758894</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23.49639746022065</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-9.488562021826844</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25.26087377334528</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-8.545993440543349</v>
+      </c>
+      <c r="D12" t="n">
+        <v>23.84767213673662</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-10.00163483418195</v>
+      </c>
+      <c r="D13" t="n">
+        <v>23.64620113616784</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-7.936356750355466</v>
+      </c>
+      <c r="D14" t="n">
+        <v>24.70754042263821</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-10.1044238940701</v>
+      </c>
+      <c r="D15" t="n">
+        <v>24.35052551170137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-9.751837846937343</v>
+      </c>
+      <c r="D16" t="n">
+        <v>24.61683008328276</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-8.431478319955771</v>
+      </c>
+      <c r="D17" t="n">
+        <v>24.39360937612444</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-10.23235838350582</v>
+      </c>
+      <c r="D18" t="n">
+        <v>24.38701480939397</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-8.674592886312524</v>
+      </c>
+      <c r="D19" t="n">
+        <v>25.38536453678897</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-8.972765552059865</v>
+      </c>
+      <c r="D20" t="n">
+        <v>25.40885950522467</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-9.178825777156257</v>
+      </c>
+      <c r="D21" t="n">
+        <v>26.6373947820951</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-6.372171696929078</v>
+      </c>
+      <c r="D22" t="n">
+        <v>26.29239561238792</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-7.814319573920327</v>
+      </c>
+      <c r="D23" t="n">
+        <v>25.62695833523329</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.526330067917297</v>
+      </c>
+      <c r="D24" t="n">
+        <v>27.08137352270162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-7.023502018803199</v>
+      </c>
+      <c r="D25" t="n">
+        <v>25.70756091082966</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-7.210156528131384</v>
+      </c>
+      <c r="D26" t="n">
+        <v>26.02414732228687</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-6.939774794720397</v>
+      </c>
+      <c r="D27" t="n">
+        <v>26.34029451348136</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-7.754918779823782</v>
+      </c>
+      <c r="D28" t="n">
+        <v>26.73777274780085</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-5.923564411138019</v>
+      </c>
+      <c r="D29" t="n">
+        <v>26.69647454460682</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-7.348934237936498</v>
+      </c>
+      <c r="D30" t="n">
+        <v>26.06398989750172</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-7.172799404431317</v>
+      </c>
+      <c r="D31" t="n">
+        <v>27.0872270278123</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-5.617534263584985</v>
+      </c>
+      <c r="D32" t="n">
+        <v>26.35434301199912</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-5.591987872018462</v>
+      </c>
+      <c r="D33" t="n">
+        <v>27.13450319817693</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>11</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-6.267188011361647</v>
+      </c>
+      <c r="D34" t="n">
+        <v>27.33451519834306</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>11</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-6.161775081884848</v>
+      </c>
+      <c r="D35" t="n">
+        <v>27.58956231966536</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>11</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-6.186207923318476</v>
+      </c>
+      <c r="D36" t="n">
+        <v>26.94589698379255</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>11</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-5.284999898842883</v>
+      </c>
+      <c r="D37" t="n">
+        <v>28.07611161408637</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-4.95500712593515</v>
+      </c>
+      <c r="D38" t="n">
+        <v>28.49682547825615</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-4.975133677987678</v>
+      </c>
+      <c r="D39" t="n">
+        <v>28.13517347342118</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>12</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-4.793826456843298</v>
+      </c>
+      <c r="D40" t="n">
+        <v>29.07524094114235</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-4.612586857643346</v>
+      </c>
+      <c r="D41" t="n">
+        <v>28.28538307242122</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-3.455670603357186</v>
+      </c>
+      <c r="D42" t="n">
+        <v>27.75975144474019</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>12</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-4.343218925539384</v>
+      </c>
+      <c r="D43" t="n">
+        <v>30.16407085822492</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-4.276504261486314</v>
+      </c>
+      <c r="D44" t="n">
+        <v>30.50523426904406</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-4.083368895071146</v>
+      </c>
+      <c r="D45" t="n">
+        <v>29.40488225272916</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-3.61387940221831</v>
+      </c>
+      <c r="D46" t="n">
+        <v>28.9523804988183</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-2.840239776790965</v>
+      </c>
+      <c r="D47" t="n">
+        <v>29.13735000058245</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-4.334664772405904</v>
+      </c>
+      <c r="D48" t="n">
+        <v>30.26614595473733</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-4.005522800327144</v>
+      </c>
+      <c r="D49" t="n">
+        <v>30.45970974999945</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-2.96430987988622</v>
+      </c>
+      <c r="D50" t="n">
+        <v>30.03560724846849</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>14</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-3.538399503552816</v>
+      </c>
+      <c r="D51" t="n">
+        <v>31.33636499493482</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>14</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-4.374326201976882</v>
+      </c>
+      <c r="D52" t="n">
+        <v>30.39045569726521</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>14</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-2.741423024720475</v>
+      </c>
+      <c r="D53" t="n">
+        <v>31.4028842268829</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>14</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-1.608538533234486</v>
+      </c>
+      <c r="D54" t="n">
+        <v>30.96295800967486</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>14</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-2.316780791531706</v>
+      </c>
+      <c r="D55" t="n">
+        <v>30.38706353251931</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>14</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-1.861715848723664</v>
+      </c>
+      <c r="D56" t="n">
+        <v>30.85957003701709</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>14</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-1.563022847385252</v>
+      </c>
+      <c r="D57" t="n">
+        <v>31.47627028039931</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>15</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-2.367213101294397</v>
+      </c>
+      <c r="D58" t="n">
+        <v>32.08318566034423</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>15</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-2.199582385742347</v>
+      </c>
+      <c r="D59" t="n">
+        <v>31.99453918391351</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>15</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-2.192669765037916</v>
+      </c>
+      <c r="D60" t="n">
+        <v>32.52577640080861</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>15</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-1.816070903057942</v>
+      </c>
+      <c r="D61" t="n">
+        <v>31.46862238222596</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>15</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-1.260638802646808</v>
+      </c>
+      <c r="D62" t="n">
+        <v>32.25897164193994</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>15</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0.9438240231370745</v>
+      </c>
+      <c r="D63" t="n">
+        <v>32.19249826253025</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>16</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-1.809895504640155</v>
+      </c>
+      <c r="D64" t="n">
+        <v>32.13950177895764</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>16</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1.265779355088546</v>
+      </c>
+      <c r="D65" t="n">
+        <v>32.94492601383711</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>16</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-0.4977069914080139</v>
+      </c>
+      <c r="D66" t="n">
+        <v>31.63373838064538</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>16</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.4178791228183382</v>
+      </c>
+      <c r="D67" t="n">
+        <v>33.07292975631397</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>16</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-0.2998805578585826</v>
+      </c>
+      <c r="D68" t="n">
+        <v>34.09479120450891</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>16</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.983888692075234</v>
+      </c>
+      <c r="D69" t="n">
+        <v>31.64861286103812</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>17</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.5870641757021132</v>
+      </c>
+      <c r="D70" t="n">
+        <v>33.85986017056776</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>17</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-1.028476336887851</v>
+      </c>
+      <c r="D71" t="n">
+        <v>34.21179423218596</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>17</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.1267984850284437</v>
+      </c>
+      <c r="D72" t="n">
+        <v>33.77498989525646</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>17</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1.933593172804086</v>
+      </c>
+      <c r="D73" t="n">
+        <v>32.69294326547109</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>17</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.399932403916532</v>
+      </c>
+      <c r="D74" t="n">
+        <v>34.08908814309866</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>17</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.9002828337590718</v>
+      </c>
+      <c r="D75" t="n">
+        <v>33.07792581988232</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>17</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.842973943069506</v>
+      </c>
+      <c r="D76" t="n">
+        <v>34.26760263977399</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BXMWXK3N_po_data.xlsx
+++ b/po_analysis_by_asin/B0BXMWXK3N_po_data.xlsx
@@ -1181,7 +1181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1200,16 +1200,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1218,12 +1208,6 @@
       <c r="B2" t="n">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
-        <v>-12.0371285290029</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.30696095054402</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1232,12 +1216,6 @@
       <c r="B3" t="n">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
-        <v>-10.73247897206887</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.38573317689519</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1246,12 +1224,6 @@
       <c r="B4" t="n">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
-        <v>-10.99924221458364</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.07740565974546</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1260,12 +1232,6 @@
       <c r="B5" t="n">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
-        <v>-12.37545363725458</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22.67110176692979</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1274,12 +1240,6 @@
       <c r="B6" t="n">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
-        <v>-9.794621070320954</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23.24612333843451</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1288,12 +1248,6 @@
       <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>-10.14327721574721</v>
-      </c>
-      <c r="D7" t="n">
-        <v>23.26786519345735</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1302,12 +1256,6 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
-        <v>-10.6046371734621</v>
-      </c>
-      <c r="D8" t="n">
-        <v>23.9513044300436</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1316,12 +1264,6 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="n">
-        <v>-10.068416199098</v>
-      </c>
-      <c r="D9" t="n">
-        <v>21.9584942327692</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1330,12 +1272,6 @@
       <c r="B10" t="n">
         <v>7</v>
       </c>
-      <c r="C10" t="n">
-        <v>-9.670733561758894</v>
-      </c>
-      <c r="D10" t="n">
-        <v>23.49639746022065</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1344,12 +1280,6 @@
       <c r="B11" t="n">
         <v>7</v>
       </c>
-      <c r="C11" t="n">
-        <v>-9.488562021826844</v>
-      </c>
-      <c r="D11" t="n">
-        <v>25.26087377334528</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1358,12 +1288,6 @@
       <c r="B12" t="n">
         <v>7</v>
       </c>
-      <c r="C12" t="n">
-        <v>-8.545993440543349</v>
-      </c>
-      <c r="D12" t="n">
-        <v>23.84767213673662</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1372,12 +1296,6 @@
       <c r="B13" t="n">
         <v>7</v>
       </c>
-      <c r="C13" t="n">
-        <v>-10.00163483418195</v>
-      </c>
-      <c r="D13" t="n">
-        <v>23.64620113616784</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1386,12 +1304,6 @@
       <c r="B14" t="n">
         <v>8</v>
       </c>
-      <c r="C14" t="n">
-        <v>-7.936356750355466</v>
-      </c>
-      <c r="D14" t="n">
-        <v>24.70754042263821</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1400,12 +1312,6 @@
       <c r="B15" t="n">
         <v>8</v>
       </c>
-      <c r="C15" t="n">
-        <v>-10.1044238940701</v>
-      </c>
-      <c r="D15" t="n">
-        <v>24.35052551170137</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1414,12 +1320,6 @@
       <c r="B16" t="n">
         <v>8</v>
       </c>
-      <c r="C16" t="n">
-        <v>-9.751837846937343</v>
-      </c>
-      <c r="D16" t="n">
-        <v>24.61683008328276</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1428,12 +1328,6 @@
       <c r="B17" t="n">
         <v>8</v>
       </c>
-      <c r="C17" t="n">
-        <v>-8.431478319955771</v>
-      </c>
-      <c r="D17" t="n">
-        <v>24.39360937612444</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1442,12 +1336,6 @@
       <c r="B18" t="n">
         <v>8</v>
       </c>
-      <c r="C18" t="n">
-        <v>-10.23235838350582</v>
-      </c>
-      <c r="D18" t="n">
-        <v>24.38701480939397</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1456,12 +1344,6 @@
       <c r="B19" t="n">
         <v>8</v>
       </c>
-      <c r="C19" t="n">
-        <v>-8.674592886312524</v>
-      </c>
-      <c r="D19" t="n">
-        <v>25.38536453678897</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1470,12 +1352,6 @@
       <c r="B20" t="n">
         <v>8</v>
       </c>
-      <c r="C20" t="n">
-        <v>-8.972765552059865</v>
-      </c>
-      <c r="D20" t="n">
-        <v>25.40885950522467</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1484,12 +1360,6 @@
       <c r="B21" t="n">
         <v>9</v>
       </c>
-      <c r="C21" t="n">
-        <v>-9.178825777156257</v>
-      </c>
-      <c r="D21" t="n">
-        <v>26.6373947820951</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1498,12 +1368,6 @@
       <c r="B22" t="n">
         <v>9</v>
       </c>
-      <c r="C22" t="n">
-        <v>-6.372171696929078</v>
-      </c>
-      <c r="D22" t="n">
-        <v>26.29239561238792</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1512,12 +1376,6 @@
       <c r="B23" t="n">
         <v>9</v>
       </c>
-      <c r="C23" t="n">
-        <v>-7.814319573920327</v>
-      </c>
-      <c r="D23" t="n">
-        <v>25.62695833523329</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1526,12 +1384,6 @@
       <c r="B24" t="n">
         <v>9</v>
       </c>
-      <c r="C24" t="n">
-        <v>-6.526330067917297</v>
-      </c>
-      <c r="D24" t="n">
-        <v>27.08137352270162</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1540,12 +1392,6 @@
       <c r="B25" t="n">
         <v>9</v>
       </c>
-      <c r="C25" t="n">
-        <v>-7.023502018803199</v>
-      </c>
-      <c r="D25" t="n">
-        <v>25.70756091082966</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1554,12 +1400,6 @@
       <c r="B26" t="n">
         <v>9</v>
       </c>
-      <c r="C26" t="n">
-        <v>-7.210156528131384</v>
-      </c>
-      <c r="D26" t="n">
-        <v>26.02414732228687</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1568,12 +1408,6 @@
       <c r="B27" t="n">
         <v>10</v>
       </c>
-      <c r="C27" t="n">
-        <v>-6.939774794720397</v>
-      </c>
-      <c r="D27" t="n">
-        <v>26.34029451348136</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1582,12 +1416,6 @@
       <c r="B28" t="n">
         <v>10</v>
       </c>
-      <c r="C28" t="n">
-        <v>-7.754918779823782</v>
-      </c>
-      <c r="D28" t="n">
-        <v>26.73777274780085</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1596,12 +1424,6 @@
       <c r="B29" t="n">
         <v>10</v>
       </c>
-      <c r="C29" t="n">
-        <v>-5.923564411138019</v>
-      </c>
-      <c r="D29" t="n">
-        <v>26.69647454460682</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1610,12 +1432,6 @@
       <c r="B30" t="n">
         <v>10</v>
       </c>
-      <c r="C30" t="n">
-        <v>-7.348934237936498</v>
-      </c>
-      <c r="D30" t="n">
-        <v>26.06398989750172</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1624,12 +1440,6 @@
       <c r="B31" t="n">
         <v>10</v>
       </c>
-      <c r="C31" t="n">
-        <v>-7.172799404431317</v>
-      </c>
-      <c r="D31" t="n">
-        <v>27.0872270278123</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1638,12 +1448,6 @@
       <c r="B32" t="n">
         <v>10</v>
       </c>
-      <c r="C32" t="n">
-        <v>-5.617534263584985</v>
-      </c>
-      <c r="D32" t="n">
-        <v>26.35434301199912</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1652,12 +1456,6 @@
       <c r="B33" t="n">
         <v>10</v>
       </c>
-      <c r="C33" t="n">
-        <v>-5.591987872018462</v>
-      </c>
-      <c r="D33" t="n">
-        <v>27.13450319817693</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1666,12 +1464,6 @@
       <c r="B34" t="n">
         <v>11</v>
       </c>
-      <c r="C34" t="n">
-        <v>-6.267188011361647</v>
-      </c>
-      <c r="D34" t="n">
-        <v>27.33451519834306</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1680,12 +1472,6 @@
       <c r="B35" t="n">
         <v>11</v>
       </c>
-      <c r="C35" t="n">
-        <v>-6.161775081884848</v>
-      </c>
-      <c r="D35" t="n">
-        <v>27.58956231966536</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1694,12 +1480,6 @@
       <c r="B36" t="n">
         <v>11</v>
       </c>
-      <c r="C36" t="n">
-        <v>-6.186207923318476</v>
-      </c>
-      <c r="D36" t="n">
-        <v>26.94589698379255</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1708,12 +1488,6 @@
       <c r="B37" t="n">
         <v>11</v>
       </c>
-      <c r="C37" t="n">
-        <v>-5.284999898842883</v>
-      </c>
-      <c r="D37" t="n">
-        <v>28.07611161408637</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1722,12 +1496,6 @@
       <c r="B38" t="n">
         <v>12</v>
       </c>
-      <c r="C38" t="n">
-        <v>-4.95500712593515</v>
-      </c>
-      <c r="D38" t="n">
-        <v>28.49682547825615</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1736,12 +1504,6 @@
       <c r="B39" t="n">
         <v>12</v>
       </c>
-      <c r="C39" t="n">
-        <v>-4.975133677987678</v>
-      </c>
-      <c r="D39" t="n">
-        <v>28.13517347342118</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1750,12 +1512,6 @@
       <c r="B40" t="n">
         <v>12</v>
       </c>
-      <c r="C40" t="n">
-        <v>-4.793826456843298</v>
-      </c>
-      <c r="D40" t="n">
-        <v>29.07524094114235</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1764,12 +1520,6 @@
       <c r="B41" t="n">
         <v>12</v>
       </c>
-      <c r="C41" t="n">
-        <v>-4.612586857643346</v>
-      </c>
-      <c r="D41" t="n">
-        <v>28.28538307242122</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1778,12 +1528,6 @@
       <c r="B42" t="n">
         <v>12</v>
       </c>
-      <c r="C42" t="n">
-        <v>-3.455670603357186</v>
-      </c>
-      <c r="D42" t="n">
-        <v>27.75975144474019</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1792,12 +1536,6 @@
       <c r="B43" t="n">
         <v>12</v>
       </c>
-      <c r="C43" t="n">
-        <v>-4.343218925539384</v>
-      </c>
-      <c r="D43" t="n">
-        <v>30.16407085822492</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1806,12 +1544,6 @@
       <c r="B44" t="n">
         <v>13</v>
       </c>
-      <c r="C44" t="n">
-        <v>-4.276504261486314</v>
-      </c>
-      <c r="D44" t="n">
-        <v>30.50523426904406</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1820,12 +1552,6 @@
       <c r="B45" t="n">
         <v>13</v>
       </c>
-      <c r="C45" t="n">
-        <v>-4.083368895071146</v>
-      </c>
-      <c r="D45" t="n">
-        <v>29.40488225272916</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1834,12 +1560,6 @@
       <c r="B46" t="n">
         <v>13</v>
       </c>
-      <c r="C46" t="n">
-        <v>-3.61387940221831</v>
-      </c>
-      <c r="D46" t="n">
-        <v>28.9523804988183</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1848,12 +1568,6 @@
       <c r="B47" t="n">
         <v>13</v>
       </c>
-      <c r="C47" t="n">
-        <v>-2.840239776790965</v>
-      </c>
-      <c r="D47" t="n">
-        <v>29.13735000058245</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1862,12 +1576,6 @@
       <c r="B48" t="n">
         <v>13</v>
       </c>
-      <c r="C48" t="n">
-        <v>-4.334664772405904</v>
-      </c>
-      <c r="D48" t="n">
-        <v>30.26614595473733</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1876,12 +1584,6 @@
       <c r="B49" t="n">
         <v>13</v>
       </c>
-      <c r="C49" t="n">
-        <v>-4.005522800327144</v>
-      </c>
-      <c r="D49" t="n">
-        <v>30.45970974999945</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1890,12 +1592,6 @@
       <c r="B50" t="n">
         <v>13</v>
       </c>
-      <c r="C50" t="n">
-        <v>-2.96430987988622</v>
-      </c>
-      <c r="D50" t="n">
-        <v>30.03560724846849</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1904,12 +1600,6 @@
       <c r="B51" t="n">
         <v>14</v>
       </c>
-      <c r="C51" t="n">
-        <v>-3.538399503552816</v>
-      </c>
-      <c r="D51" t="n">
-        <v>31.33636499493482</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1918,12 +1608,6 @@
       <c r="B52" t="n">
         <v>14</v>
       </c>
-      <c r="C52" t="n">
-        <v>-4.374326201976882</v>
-      </c>
-      <c r="D52" t="n">
-        <v>30.39045569726521</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1932,12 +1616,6 @@
       <c r="B53" t="n">
         <v>14</v>
       </c>
-      <c r="C53" t="n">
-        <v>-2.741423024720475</v>
-      </c>
-      <c r="D53" t="n">
-        <v>31.4028842268829</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1946,12 +1624,6 @@
       <c r="B54" t="n">
         <v>14</v>
       </c>
-      <c r="C54" t="n">
-        <v>-1.608538533234486</v>
-      </c>
-      <c r="D54" t="n">
-        <v>30.96295800967486</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1960,12 +1632,6 @@
       <c r="B55" t="n">
         <v>14</v>
       </c>
-      <c r="C55" t="n">
-        <v>-2.316780791531706</v>
-      </c>
-      <c r="D55" t="n">
-        <v>30.38706353251931</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1974,12 +1640,6 @@
       <c r="B56" t="n">
         <v>14</v>
       </c>
-      <c r="C56" t="n">
-        <v>-1.861715848723664</v>
-      </c>
-      <c r="D56" t="n">
-        <v>30.85957003701709</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1988,12 +1648,6 @@
       <c r="B57" t="n">
         <v>14</v>
       </c>
-      <c r="C57" t="n">
-        <v>-1.563022847385252</v>
-      </c>
-      <c r="D57" t="n">
-        <v>31.47627028039931</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2002,12 +1656,6 @@
       <c r="B58" t="n">
         <v>15</v>
       </c>
-      <c r="C58" t="n">
-        <v>-2.367213101294397</v>
-      </c>
-      <c r="D58" t="n">
-        <v>32.08318566034423</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2016,12 +1664,6 @@
       <c r="B59" t="n">
         <v>15</v>
       </c>
-      <c r="C59" t="n">
-        <v>-2.199582385742347</v>
-      </c>
-      <c r="D59" t="n">
-        <v>31.99453918391351</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2030,12 +1672,6 @@
       <c r="B60" t="n">
         <v>15</v>
       </c>
-      <c r="C60" t="n">
-        <v>-2.192669765037916</v>
-      </c>
-      <c r="D60" t="n">
-        <v>32.52577640080861</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2044,12 +1680,6 @@
       <c r="B61" t="n">
         <v>15</v>
       </c>
-      <c r="C61" t="n">
-        <v>-1.816070903057942</v>
-      </c>
-      <c r="D61" t="n">
-        <v>31.46862238222596</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2058,12 +1688,6 @@
       <c r="B62" t="n">
         <v>15</v>
       </c>
-      <c r="C62" t="n">
-        <v>-1.260638802646808</v>
-      </c>
-      <c r="D62" t="n">
-        <v>32.25897164193994</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2072,12 +1696,6 @@
       <c r="B63" t="n">
         <v>15</v>
       </c>
-      <c r="C63" t="n">
-        <v>-0.9438240231370745</v>
-      </c>
-      <c r="D63" t="n">
-        <v>32.19249826253025</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2086,12 +1704,6 @@
       <c r="B64" t="n">
         <v>16</v>
       </c>
-      <c r="C64" t="n">
-        <v>-1.809895504640155</v>
-      </c>
-      <c r="D64" t="n">
-        <v>32.13950177895764</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2100,12 +1712,6 @@
       <c r="B65" t="n">
         <v>16</v>
       </c>
-      <c r="C65" t="n">
-        <v>-1.265779355088546</v>
-      </c>
-      <c r="D65" t="n">
-        <v>32.94492601383711</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2114,12 +1720,6 @@
       <c r="B66" t="n">
         <v>16</v>
       </c>
-      <c r="C66" t="n">
-        <v>-0.4977069914080139</v>
-      </c>
-      <c r="D66" t="n">
-        <v>31.63373838064538</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2128,12 +1728,6 @@
       <c r="B67" t="n">
         <v>16</v>
       </c>
-      <c r="C67" t="n">
-        <v>0.4178791228183382</v>
-      </c>
-      <c r="D67" t="n">
-        <v>33.07292975631397</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2142,12 +1736,6 @@
       <c r="B68" t="n">
         <v>16</v>
       </c>
-      <c r="C68" t="n">
-        <v>-0.2998805578585826</v>
-      </c>
-      <c r="D68" t="n">
-        <v>34.09479120450891</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2156,12 +1744,6 @@
       <c r="B69" t="n">
         <v>16</v>
       </c>
-      <c r="C69" t="n">
-        <v>0.983888692075234</v>
-      </c>
-      <c r="D69" t="n">
-        <v>31.64861286103812</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2170,12 +1752,6 @@
       <c r="B70" t="n">
         <v>17</v>
       </c>
-      <c r="C70" t="n">
-        <v>0.5870641757021132</v>
-      </c>
-      <c r="D70" t="n">
-        <v>33.85986017056776</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2184,12 +1760,6 @@
       <c r="B71" t="n">
         <v>17</v>
       </c>
-      <c r="C71" t="n">
-        <v>-1.028476336887851</v>
-      </c>
-      <c r="D71" t="n">
-        <v>34.21179423218596</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2198,12 +1768,6 @@
       <c r="B72" t="n">
         <v>17</v>
       </c>
-      <c r="C72" t="n">
-        <v>0.1267984850284437</v>
-      </c>
-      <c r="D72" t="n">
-        <v>33.77498989525646</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2212,12 +1776,6 @@
       <c r="B73" t="n">
         <v>17</v>
       </c>
-      <c r="C73" t="n">
-        <v>-1.933593172804086</v>
-      </c>
-      <c r="D73" t="n">
-        <v>32.69294326547109</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2226,12 +1784,6 @@
       <c r="B74" t="n">
         <v>17</v>
       </c>
-      <c r="C74" t="n">
-        <v>0.399932403916532</v>
-      </c>
-      <c r="D74" t="n">
-        <v>34.08908814309866</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2240,12 +1792,6 @@
       <c r="B75" t="n">
         <v>17</v>
       </c>
-      <c r="C75" t="n">
-        <v>0.9002828337590718</v>
-      </c>
-      <c r="D75" t="n">
-        <v>33.07792581988232</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -2253,12 +1799,6 @@
       </c>
       <c r="B76" t="n">
         <v>17</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1.842973943069506</v>
-      </c>
-      <c r="D76" t="n">
-        <v>34.26760263977399</v>
       </c>
     </row>
   </sheetData>
